--- a/IngramMicro.USIT.OST.API.NunitConsole/bin/Debug/TestData/OrderDetailsTestData.xlsx
+++ b/IngramMicro.USIT.OST.API.NunitConsole/bin/Debug/TestData/OrderDetailsTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\IngramMicro.USIT.OST.API.Automation\IngramMicro.USIT.OST.API.Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AADB48-0B1B-4893-8E8F-7BEB72C8D086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C226989-B439-41EF-A5EE-6BB28B00C742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="630" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="148">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -365,9 +365,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>{"orderLines":[{"vendorSalesOrderLineNumber":"50","vendorPartNumber":"5692A6P","description":"AIX SPO","serialNumberCount":1,"serialNumbers":["R2DCZUS"]},{"vendorSalesOrderLineNumber":"60","vendorPartNumber":"5765G98","description":"IBMAIX 7.2 STANDARDEDIT","serialNumberCount":1,"serialNumbers":["R2HN65D"]},{"vendorSalesOrderLineNumber":"70","vendorPartNumber":"5733WE3","description":"IBMWEB ENABLEMENT FOR I","serialNumberCount":1,"serialNumbers":["R2M8G2L"]},{"vendorSalesOrderLineNumber":"80","vendorPartNumber":"5765VE3","description":"IBMPOWERENTEREDITI","serialNumberCount":1,"serialNumbers":["R2HN65C"]},{"vendorSalesOrderLineNumber":"90","vendorPartNumber":"5770HAS","description":"POWERHA SYSMIRROR FOR I","serialNumberCount":1,"serialNumbers":["R20GELP"]},{"vendorSalesOrderLineNumber":"110","vendorPartNumber":"5770SS1","description":"IBM I","serialNumberCount":1,"serialNumbers":["R20GELG"]},{"vendorSalesOrderLineNumber":"120","vendorPartNumber":"5770SSA","description":"IBM I LICENSE","serialNumberCount":1,"serialNumbers":["R20GELJ"]},{"vendorSalesOrderLineNumber":"150","vendorPartNumber":"5639SV9","description":"IBM SV SW FLASHSYSTEM5100 V8","serialNumberCount":1,"serialNumbers":["R2W2H6Y"]},{"vendorSalesOrderLineNumber":"100","vendorPartNumber":"5770SS1","description":"IBM I","serialNumberCount":1,"serialNumbers":["R20GELS"]},{"vendorSalesOrderLineNumber":"10","vendorPartNumber":"900942G","description":"MACHINE TYPE 9009 - MODEL NEW","serialNumberCount":1,"serialNumbers":["78C5B80"]},{"vendorSalesOrderLineNumber":"30","vendorPartNumber":"7014T42","description":"MACHINE TYPE 7014 - MODEL NEW","serialNumberCount":1,"serialNumbers":["78H401G"]},{"vendorSalesOrderLineNumber":"130","vendorPartNumber":"20784H4","description":"MACHINE TYPE 2078 - MODEL NEW","serialNumberCount":1,"serialNumbers":["78E08D4"]},{"vendorSalesOrderLineNumber":"160","vendorPartNumber":"7063CR1","description":"MACHINE TYPE 7063 - MODEL NEW","serialNumberCount":1,"serialNumbers":["130ZKTA"]}]}</t>
   </si>
   <si>
     <t>TC1_29_Regression_OrderDetails_Trackings_Shipmentlevel_Stock Order</t>
@@ -529,9 +526,6 @@
     <t>{"lines":[{"ingramSalesOrderLineNumber":"1","ingramPartNumber":"2CL133","vendorPartNumber":"SMT1500C","description":"APC SCHNEIDER ELECTRIC IT CONTAINER  SMART UPS 1500VA LCD 120V WITH  SMARTCONNECT","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-06-16"}]},{"ingramSalesOrderLineNumber":"2","ingramPartNumber":"9Y7513","vendorPartNumber":"BX806734110","description":"INTEL - SERVER CPU  XEON SILVER 4110 8C 2.1GHZ 11M  DDR4 UP TO 2400MHZ *NC/NR 4/23/2021","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-06-16"}]},{"ingramSalesOrderLineNumber":"3","ingramPartNumber":"7CK752","vendorPartNumber":"B365 HD3","description":"GIGABYTE  B365 HD3 ULTRA DURABLE DDR4  ECC DIMM UNBUFF","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-11-23"}]}]}</t>
   </si>
   <si>
-    <t>{"orderLines":[{"vendorSalesOrderLineNumber":"50","vendorPartNumber":"5692A6P","description":"AIX SPO","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"60","vendorPartNumber":"5765G98","description":"IBMAIX 7.2 STANDARDEDIT","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"70","vendorPartNumber":"5733WE3","description":"IBMWEB ENABLEMENT FOR I","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"80","vendorPartNumber":"5765VE3","description":"IBMPOWERENTEREDITI","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"90","vendorPartNumber":"5770HAS","description":"POWERHA SYSMIRROR FOR I","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"110","vendorPartNumber":"5770SS1","description":"IBM I","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"120","vendorPartNumber":"5770SSA","description":"IBM I LICENSE","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"150","vendorPartNumber":"5639SV9","description":"IBM SV SW FLASHSYSTEM5100 V8","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"100","vendorPartNumber":"5770SS1","description":"IBM I","quantityShipped":1,"carrierDetails":[{"name":"UNITED PARCEL SERVICE INC","trackingNumber":"1Z9196V30133641941","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://www.ups.com/track?loc=en_US&amp;tracknum=1Z9196V30133641941&amp;requester=WT/trackdetails","proofOfDelivery":{"signedByName":"SECURITY"}}]},{"vendorSalesOrderLineNumber":"10","vendorPartNumber":"900942G","description":"MACHINE TYPE 9009 - MODEL NEW","quantityShipped":1,"carrierDetails":[{"name":"GEODIS","trackingNumber":"01F4FC4","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://portal.geodis.com/wps/portal/ExtranetSCO/Home/ibm/trackandtraceosol/?searchoption=servicenumber&amp;searchvalue=01F4FC4","proofOfDelivery":{"signedByName":"N/A"}}]},{"vendorSalesOrderLineNumber":"30","vendorPartNumber":"7014T42","description":"MACHINE TYPE 7014 - MODEL NEW","quantityShipped":1,"carrierDetails":[{"name":"GEODIS","trackingNumber":"01F4FC4","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://portal.geodis.com/wps/portal/ExtranetSCO/Home/ibm/trackandtraceosol/?searchoption=servicenumber&amp;searchvalue=01F4FC4","proofOfDelivery":{"signedByName":"N/A"}}]},{"vendorSalesOrderLineNumber":"130","vendorPartNumber":"20784H4","description":"MACHINE TYPE 2078 - MODEL NEW","quantityShipped":1,"carrierDetails":[{"name":"GEODIS","trackingNumber":"01F4F8C","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://portal.geodis.com/wps/portal/ExtranetSCO/Home/ibm/trackandtraceosol/?searchoption=servicenumber&amp;searchvalue=01F4F8C","proofOfDelivery":{"signedByName":"N/A"}}]},{"vendorSalesOrderLineNumber":"160","vendorPartNumber":"7063CR1","description":"MACHINE TYPE 7063 - MODEL NEW","quantityShipped":1,"carrierDetails":[{"name":"GEODIS","trackingNumber":"01F4FC4","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://portal.geodis.com/wps/portal/ExtranetSCO/Home/ibm/trackandtraceosol/?searchoption=servicenumber&amp;searchvalue=01F4FC4","proofOfDelivery":{"signedByName":"N/A"}}]}]}</t>
-  </si>
-  <si>
     <t>{"orderLines":[{"ingramSalesOrderLineNumber":"001","ingramPartNumber":"7MQ029","vendorPartNumber":"MXDD2LL/A","description":"APPLE IPADS  IPAD PRO 11IN 256GB WIFI SILVER  2ND GEN *EOL 4/20 *NO RETURN","quantityShipped":1,"carrierDetails":[{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"151385823184","quantity":1,"actualShipDate":"2020-09-25","carrierPickupDate":"2020-09-26","estimatedDeliveryDate":"2020-10-05","deliveredDate":"2020-10-01","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MILLINGTON, TN","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=151385823184"}]}]}</t>
   </si>
   <si>
@@ -541,22 +535,34 @@
     <t>{"orderLines":[{"ingramSalesOrderLineNumber":"001","ingramPartNumber":"5A0270","vendorPartNumber":"77-54088","description":"OTTERBOX - 10002972  DEFENDER IPHONE 7/8/SE BLACK  PRO PACK","quantityShipped":204,"carrierDetails":[{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196829","quantity":40,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196829"},{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196818","quantity":40,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196818"},{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196807","quantity":40,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196807"},{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196792","quantity":40,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196792"},{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196830","quantity":44,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196830"}]},{"ingramSalesOrderLineNumber":"003","ingramPartNumber":"5A0270","vendorPartNumber":"77-54088","description":"OTTERBOX - 10002972  DEFENDER IPHONE 7/8/SE BLACK  PRO PACK","quantityShipped":46,"carrierDetails":[{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"118300544267","quantity":46,"actualShipDate":"2020-09-22","carrierPickupDate":"2020-09-23","estimatedDeliveryDate":"2020-09-25","deliveredDate":"2020-09-25","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"CARROLLTON, TX","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=118300544267"}]},{"ingramSalesOrderLineNumber":"004","ingramPartNumber":"5A0270","vendorPartNumber":"77-54088","description":"OTTERBOX - 10002972  DEFENDER IPHONE 7/8/SE BLACK  PRO PACK","quantityShipped":25,"carrierDetails":[{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"118300544267","quantity":25,"actualShipDate":"2020-09-22","carrierPickupDate":"2020-09-23","estimatedDeliveryDate":"2020-09-25","deliveredDate":"2020-09-25","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"CARROLLTON, TX","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=118300544267"}]},{"ingramSalesOrderLineNumber":"005","ingramPartNumber":"4R1921","vendorPartNumber":"5393-829-309","description":"JABRA BUSINESS  EVOLVE 30 II UC MONO","quantityShipped":2,"carrierDetails":[{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196792","quantity":2,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196792"}]},{"ingramSalesOrderLineNumber":"006","ingramPartNumber":"9K9883","vendorPartNumber":"208769-01","description":"PLANTRONICS INC  VOYAGER 8200 UC B8200 BLACK WW","quantityShipped":3,"carrierDetails":[{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"151385086463","quantity":3,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-18","estimatedDeliveryDate":"2020-09-24","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MILLINGTON, TN","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=151385086463"}]}]}</t>
   </si>
   <si>
-    <t>{"orderLines":[{"ingramSalesOrderLineNumber":"004","ingramPartNumber":"5BN705","vendorPartNumber":"T202120-BCS","description":"EPSON - CLOSED PRINTERS AND INK  T202 CMYK COMBO INK","quantityShipped":1,"carrierDetails":[{"name":"UNITED PARCEL SERVICE INC","scac":"upsn","trackingNumber":"9261290000787116282953","quantity":1,"actualShipDate":"2020-06-02","estimatedDeliveryDate":"2020-06-09","deliveredDate":"2020-06-10","status":"Delivered","statusDescription":"Package delivered by post office","shipFromLocation":"MILLINGTON, TN","trackingUrl":"https://www.ups.com/track?loc=en_US&amp;tracknum=9261290000787116282953"}]}]}</t>
-  </si>
-  <si>
     <t>{"orderLines":[{"ingramSalesOrderLineNumber":"001","ingramPartNumber":"7MQ029","vendorPartNumber":"MXDD2LL/A","description":"APPLE IPADS  IPAD PRO 11IN 256GB WIFI SILVER  2ND GEN *EOL 4/20 *NO RETURN","serialNumberCount":1,"serialNumbers":["SDMPDD94HNRCC"]}]}</t>
   </si>
   <si>
     <t>{"lines":[{"ingramSalesOrderLineNumber":"1","ingramPartNumber":"7MQ029","vendorPartNumber":"MXDD2LL/A","description":"APPLE IPADS  IPAD PRO 11IN 256GB WIFI SILVER  2ND GEN *EOL 4/20 *NO RETURN","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-09-25","actualShipDate":"2020-09-25"}]}]}</t>
   </si>
   <si>
-    <t>{"lines":[{"vendorSalesOrderLineNumber":"50","vendorPartNumber":"5692A6P","description":"AIX SPO","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Non-shippable","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1101","description":"1101-DVD PROCESS NO CHARGE","quantityOrdered":1},{"vendorPartNumber":"2313","description":"AIX V7.2 BASE INSTALL","quantityOrdered":1},{"vendorPartNumber":"2315","description":"AIX V7.2 EXPANSION PACK","quantityOrdered":1},{"vendorPartNumber":"2344","description":"IBMPOWERVMV3/VIOS","quantityOrdered":1},{"vendorPartNumber":"2345","description":"IBMPOWEV3EXPAPACK","quantityOrdered":1},{"vendorPartNumber":"2508","description":"AIX V7.2 STANDARD SPEC","quantityOrdered":1},{"vendorPartNumber":"3435","description":"3435-DVD/CD-ROM","quantityOrdered":1},{"vendorPartNumber":"3450","description":"3450-ELECTRONIC DELIVERY","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"60","vendorPartNumber":"5765G98","description":"IBMAIX 7.2 STANDARDEDIT","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Non-shippable","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0008","description":"0008-PER PROCESSOR SMALL P7","quantityOrdered":4}]},{"vendorSalesOrderLineNumber":"70","vendorPartNumber":"5733WE3","description":"IBMWEB ENABLEMENT FOR I","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Non-shippable","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0001","description":"0001-IBM WEB ENABLEMENT FR I","quantityOrdered":1},{"vendorPartNumber":"3450","description":"ELECTRONIC DELIVERY","quantityOrdered":1},{"vendorPartNumber":"5819","description":"WEB ENABLEMENT FOR I","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"80","vendorPartNumber":"5765VE3","description":"IBMPOWERENTEREDITI","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Non-shippable","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0005","description":"0005-PERPROCORSMANOCHA","quantityOrdered":16}]},{"vendorSalesOrderLineNumber":"90","vendorPartNumber":"5770HAS","description":"POWERHA SYSMIRROR FOR I","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Non-shippable","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1495","description":"1495-PER PROC STD ED - SMALL","quantityOrdered":1},{"vendorPartNumber":"1504","description":"1504-PER ROC ENT UPG FEAT - SM","quantityOrdered":1},{"vendorPartNumber":"3441","description":"LPAR SYSTEM INDICATOR","quantityOrdered":1},{"vendorPartNumber":"5827","description":"5827-LANGUAGE GROUP 1","quantityOrdered":1},{"vendorPartNumber":"5947","description":"5947-LANGUAGE GROUP 1","quantityOrdered":1},{"vendorPartNumber":"6345","description":"6345-USER ENTITLEMENT","quantityOrdered":1},{"vendorPartNumber":"6346","description":"6346-USER ENTITLEMENT","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"110","vendorPartNumber":"5770SS1","description":"IBM I","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Non-shippable","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1383","description":"1383-OTC STAMPED MEDIA","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"120","vendorPartNumber":"5770SSA","description":"IBM I LICENSE","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Non-shippable","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1551","description":"1551-ILIC1YSWMA-E6B/E6D/42A","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"150","vendorPartNumber":"5639SV9","description":"IBM SV SW FLASHSYSTEM5100 V8","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Non-shippable","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0001","description":"0001-SV STORWIZE V5100 SW","quantityOrdered":1},{"vendorPartNumber":"0005","description":"0005-STORWIZE V5100 FB SW","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"100","vendorPartNumber":"5770SS1","description":"IBM I","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Delivered","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1066","description":"1066-P20 HA SWITCH W/SW PKG","quantityOrdered":1},{"vendorPartNumber":"1535","description":"1535-PPROCRGILIC-E6B/E6D/42A","quantityOrdered":1},{"vendorPartNumber":"3441","description":"LPAR SYSTEM INDICATOR","quantityOrdered":1},{"vendorPartNumber":"5837","description":"I 7.3 LANG GRP 1 SUPPLY","quantityOrdered":1},{"vendorPartNumber":"5873","description":"I 7.3 MACHINE CODE","quantityOrdered":1},{"vendorPartNumber":"5949","description":"I7.3HASWITCHRESSUPPLY","quantityOrdered":1},{"vendorPartNumber":"5973","description":"IBM I USB UTIL LIC INS7.3","quantityOrdered":1},{"vendorPartNumber":"6000","description":"PER PROC EPOE REG FOR IBM I PW","quantityOrdered":1},{"vendorPartNumber":"6001","description":"6001-EPOE UPG REG","quantityOrdered":1},{"vendorPartNumber":"6290","description":"IBMIACCCLISOLSUP","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"10","vendorPartNumber":"900942G","description":"MACHINE TYPE 9009 - MODEL NEW","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Delivered","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-02","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"GUADALAJARA MEXICO (SPD)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0040","description":"MIRRORED SYSTEM DISK LEVEL, SP","quantityOrdered":1},{"vendorPartNumber":"0265","description":"AIX PARTITION SPECIFY","quantityOrdered":1},{"vendorPartNumber":"0267","description":"I5/OS PARTITION SPECIFY","quantityOrdered":4},{"vendorPartNumber":"0444","description":"CBU SPECIFY","quantityOrdered":1},{"vendorPartNumber":"0837","description":"SAN LOAD SOURCE SPECIFY","quantityOrdered":1},{"vendorPartNumber":"2145","description":"PRIMARY OS - IBM I","quantityOrdered":1},{"vendorPartNumber":"4649","description":"RACK INTEGRATION SERVICES","quantityOrdered":1},{"vendorPartNumber":"4651","description":"4651-RACK INDICATOR, RACK  1","quantityOrdered":1},{"vendorPartNumber":"4970","description":"4970-ONE PROCESSOR OF 5250 ENT","quantityOrdered":1},{"vendorPartNumber":"5228","description":"5228-POWERVM ENTERPRISE EDITIN","quantityOrdered":16},{"vendorPartNumber":"5550","description":"SYS CONSOLE ON HMC","quantityOrdered":1},{"vendorPartNumber":"5899","description":"5899-PCIE2 4-PORT 1GBE ADAPTER","quantityOrdered":4},{"vendorPartNumber":"6577","description":"POWER CABLE DRAWER TO IBM PD","quantityOrdered":4},{"vendorPartNumber":"9300","description":"LANGUAGE GROUP SPCF-US ENG","quantityOrdered":1},{"vendorPartNumber":"9440","description":"NEW AIX LICENSE CORE COUNTER","quantityOrdered":4},{"vendorPartNumber":"9441","description":"NEW IBM I LIC CORE COUNTER","quantityOrdered":1},{"vendorPartNumber":"9448","description":"OTHER IBM I LIC CORE COUNTER","quantityOrdered":15},{"vendorPartNumber":"EB2M","description":"EB2M-POWER SUPPLY 200-240 VAC","quantityOrdered":4},{"vendorPartNumber":"EB73","description":"IBM I 7.3 INDICATOR","quantityOrdered":1},{"vendorPartNumber":"ECCF","description":"PORT CONVERTER CABLE FOR UPS","quantityOrdered":1},{"vendorPartNumber":"ECW0","description":"OPTICAL WRAP PLUG","quantityOrdered":2},{"vendorPartNumber":"EJU3","description":"EJU3-FRONT IBM BEZEL 12-BAY","quantityOrdered":1},{"vendorPartNumber":"EM65","description":"EM65-128 GB DDR4 MEMORY","quantityOrdered":8},{"vendorPartNumber":"EN1A","description":"PCIE3 32GB 2-PORT FC ADAPTER","quantityOrdered":2},{"vendorPartNumber":"EP5E","description":"EP5E-8-CORE 3.8/4.0 GHZ POWER9","quantityOrdered":2},{"vendorPartNumber":"EP6E","description":"EP6E-ONE PROC ACTIVATION EP5E","quantityOrdered":16},{"vendorPartNumber":"ESC6","description":"S&amp;H-B","quantityOrdered":1},{"vendorPartNumber":"EU0B","description":"OPERATOR PANEL LCD DISPLAY","quantityOrdered":1},{"vendorPartNumber":"EU19","description":"CABLE TIES&amp; LABELS","quantityOrdered":1},{"vendorPartNumber":"EUA5","description":"STANDALONE USB DVD DRIVE W/C","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"30","vendorPartNumber":"7014T42","description":"MACHINE TYPE 7014 - MODEL NEW","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Delivered","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-02","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"GUADALAJARA MEXICO (SPD)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"4651","description":"RACK INDICATOR, RACK # 1","quantityOrdered":1},{"vendorPartNumber":"6069","description":"6069-FRONTDOORFOR2.0MRACK","quantityOrdered":1},{"vendorPartNumber":"6098","description":"SIDE PANEL 1.8M/2M RACK BLACK","quantityOrdered":2},{"vendorPartNumber":"6654","description":"4.3M 1PH/24A PWR CORD","quantityOrdered":2},{"vendorPartNumber":"7188","description":"PWR DIST.UNIT -SIDE MOUNT","quantityOrdered":1},{"vendorPartNumber":"9188","description":"PW.DIST.UN.SPCF-BASE/SIDE MNT","quantityOrdered":1},{"vendorPartNumber":"9300","description":"LANG.GROUP SPEC.-US ENGLISH","quantityOrdered":1},{"vendorPartNumber":"ER2B","description":"RESERVE 2U AT BOTTOM OF RACK","quantityOrdered":1},{"vendorPartNumber":"ER35","description":"RACK SPECIFY 42G - 4EIA","quantityOrdered":1},{"vendorPartNumber":"ERC2","description":"RACK CONTENT SPCFY 7063-CR1","quantityOrdered":1},{"vendorPartNumber":"ERLR","description":"LEFT/RIGHT PDU REDUNDANCY","quantityOrdered":1},{"vendorPartNumber":"ESC1","description":"RACK S&amp;H-A","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"130","vendorPartNumber":"20784H4","description":"MACHINE TYPE 2078 - MODEL NEW","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Delivered","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-02","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"GUADALAJARA MEXICO (SPD)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"9730","description":"POWER CORD - PDU CONNECTION","quantityOrdered":1},{"vendorPartNumber":"ACB9","description":"32GB FC ADAPTER PAIR","quantityOrdered":1},{"vendorPartNumber":"ACGE","description":"V5100 64 GB CACHE UPGRADE","quantityOrdered":2},{"vendorPartNumber":"ACGF","description":"V5100 384 GB CACHE UPGRADE","quantityOrdered":1},{"vendorPartNumber":"ACGX","description":"ACGX-120 GBM.2 BOOTDRIVEPAIR","quantityOrdered":1},{"vendorPartNumber":"ACGZ","description":"MANUFACTURING INDICATOR #2","quantityOrdered":1},{"vendorPartNumber":"ACSQ","description":"1M OM3 FIBER CABLE (LC)","quantityOrdered":8},{"vendorPartNumber":"ADN1","description":"ORDER TYPE 1 - CTO","quantityOrdered":1},{"vendorPartNumber":"AES5","description":"AES5-4.8TB NVME FCM","quantityOrdered":12},{"vendorPartNumber":"AGC8","description":"AGC8-SHIPPING AND HANDLING","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"160","vendorPartNumber":"7063CR1","description":"MACHINE TYPE 7063 - MODEL NEW","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Delivered","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-02","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"GUADALAJARA MEXICO (SPD)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"4650","description":"NO FACTORY INTEGRATION IND.","quantityOrdered":1},{"vendorPartNumber":"9069","description":"HMC/SRV ORDER LINKAGE IND","quantityOrdered":1},{"vendorPartNumber":"9300","description":"LANGUAGE GROUP SPCF-US ENG","quantityOrdered":1},{"vendorPartNumber":"EC16","description":"OPEN POWER NON-VIRTUAL CONFI","quantityOrdered":1},{"vendorPartNumber":"EKLM","description":"1.8M 6FT PWRCRD,200-240V/15A","quantityOrdered":2},{"vendorPartNumber":"ESC5","description":"S&amp;H-A","quantityOrdered":1},{"vendorPartNumber":"EU39","description":"EU39-P9 ATTACHMENT INDICATOR","quantityOrdered":1}]}]}</t>
-  </si>
-  <si>
     <t>{"lines":[{"ingramSalesOrderLineNumber":"1","ingramPartNumber":"7DT878","vendorPartNumber":"MVVJ2LL/A","description":"APPLE - SYSTEMS  MACBOOK PRO 16IN 2.6GHZ 6-CORE  I7 512GB SPACE GRAY","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-06-17"}]},{"ingramSalesOrderLineNumber":"2","ingramPartNumber":"3A1364","vendorPartNumber":"CF226X","description":"HP INC. - LASER JET TONERS  26X BLACK  TONER CARTRIDGE  LASERJET","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-06-17"}]},{"ingramSalesOrderLineNumber":"3","ingramPartNumber":"6JA875","vendorPartNumber":"3YL64AN#140","description":"HP INC. - INK SAP  910XL YELLOW ORIGINAL INK CRTG","quantityOrdered":20,"quantityShipped":0,"lineStatus":"Void"},{"ingramSalesOrderLineNumber":"4","ingramPartNumber":"6G4153","vendorPartNumber":"G3Q75A#BGJ","description":"HP INC. - IPG MFP  LASERJET PRO MFP M227FDW LASER","quantityOrdered":2,"quantityShipped":2,"lineStatus":"Shipped","shipments":[{"quantity":2,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-09-04"}]},{"ingramSalesOrderLineNumber":"5","ingramPartNumber":"7MQ061","vendorPartNumber":"MVH22LL/A","description":"APPLE - SYSTEMS  MACBOOK AIR 13IN 1.1G I5 512GB  SPACE GRAY *EOL 11/10","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-06-17"}]},{"ingramSalesOrderLineNumber":"6","ingramPartNumber":"7MQ062","vendorPartNumber":"MVH42LL/A","description":"APPLE - SYSTEMS  MACBOOK AIR 13IN 1.1G I5 512GB  SILVER  *EOL 11/10","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-06-16"}]},{"ingramSalesOrderLineNumber":"7","ingramPartNumber":"7KA743","vendorPartNumber":"7KW75A#BGJ","description":"HP INC. - IPG MFP  HP COLOR LASERJET PRO MFP  M283FDW PRNTR US CA MX LA","quantityOrdered":6,"quantityShipped":6,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-07-02"},{"quantity":5,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-07-10"}]},{"ingramSalesOrderLineNumber":"8","ingramPartNumber":"7DT880","vendorPartNumber":"MVVK2LL/A","description":"APPLE - SYSTEMS  MACBOOK PRO 16IN 2.3GHZ 8-CORE  I9 1TB SPACE GRAY","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-06-16"}]},{"ingramSalesOrderLineNumber":"9","ingramPartNumber":"CH4508","vendorPartNumber":"MXT101MMLP6","description":"STARTECH.COM  6FT LOW PROFILE VGA CABLE  1920X1200 HD15 MONITOR CABLE M/M","quantityOrdered":6,"quantityShipped":6,"lineStatus":"Shipped","shipments":[{"quantity":6,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-06-17"}]},{"ingramSalesOrderLineNumber":"10","ingramPartNumber":"7CH168","vendorPartNumber":"8WB97UT#ABA","description":"HP INC. - SB NOTEBOOKS  SMART BUY PROBOOK 450 G7  I5-10210U 15IN 8GB 256GB","quantityOrdered":4,"quantityShipped":4,"lineStatus":"Shipped","shipments":[{"quantity":4,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-06-16"}]},{"ingramSalesOrderLineNumber":"11","ingramPartNumber":"7JQ132","vendorPartNumber":"9NL39UT#ABA","description":"HP INC. - SB NOTEBOOKS  SMART BUY 470 G7 I5-10210U 17IN  16GB 256GB","quantityOrdered":2,"quantityShipped":2,"lineStatus":"Shipped","shipments":[{"quantity":2,"estimatedShipDate":"2020-06-16","actualShipDate":"2020-07-10"}]}]}</t>
   </si>
   <si>
     <t>{"orderLines":[{"ingramSalesOrderLineNumber":"001","ingramPartNumber":"5A0270","vendorPartNumber":"77-54088","description":"OTTERBOX - 10002972  DEFENDER IPHONE 7/8/SE BLACK  PRO PACK","quantityShipped":204,"carrierDetails":[{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196829","quantity":40,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196829"},{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196818","quantity":40,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196818"},{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196807","quantity":40,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196807"},{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196792","quantity":40,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196792"},{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196830","quantity":44,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196830"}]},{"ingramSalesOrderLineNumber":"005","ingramPartNumber":"4R1921","vendorPartNumber":"5393-829-309","description":"JABRA BUSINESS  EVOLVE 30 II UC MONO","quantityShipped":2,"carrierDetails":[{"name":"FEDEX GROUND PARCEL GROUND","scac":"fdeg","trackingNumber":"918281196792","quantity":2,"actualShipDate":"2020-09-17","carrierPickupDate":"2020-09-19","estimatedDeliveryDate":"2020-09-21","deliveredDate":"2020-09-21","status":"Delivered","statusDescription":"Delivered","shipFromLocation":"MIRA LOMA, CA","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=918281196792"}]}]}</t>
+  </si>
+  <si>
+    <t>{"orderLines":[{"vendorSalesOrderLineNumber":"50","vendorPartNumber":"5692A6P","description":"IBM  AIX SPO  ","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"60","vendorPartNumber":"5765G98","description":"IBM  IBMAIX 7.2 STANDARDEDIT  ","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"70","vendorPartNumber":"5733WE3","description":"IBM  IBMWEB ENABLEMENT FOR I  ","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"80","vendorPartNumber":"5765VE3","description":"IBM  IBMPOWERENTEREDITI  ","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"90","vendorPartNumber":"5770HAS","description":"IBM  POWERHA SYSMIRROR FOR I  ","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"110","vendorPartNumber":"5770SS1","description":"IBM  IBM I  ","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"120","vendorPartNumber":"5770SSA","description":"IBM  IBM I LICENSE  ","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"150","vendorPartNumber":"5639SV9","description":"IBM  IBM SV SW FLASHSYSTEM5100 V8  ","quantityShipped":1,"carrierDetails":[{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"},{"name":"VIRTUAL","trackingNumber":"N/A","quantity":0,"actualShipDate":"2020-09-30","status":"Non-shippable"}]},{"vendorSalesOrderLineNumber":"100","vendorPartNumber":"5770SS1","description":"IBM  IBM I  ","quantityShipped":1,"carrierDetails":[{"name":"UNITED PARCEL SERVICE INC","trackingNumber":"1Z9196V30133641941","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://www.ups.com/track?loc=en_US&amp;tracknum=1Z9196V30133641941&amp;requester=WT/trackdetails","proofOfDelivery":{"signedByName":"SECURITY"}}]},{"vendorSalesOrderLineNumber":"10","vendorPartNumber":"900942G","description":"IBM  MACHINE TYPE 9009 - MODEL NEW  ","quantityShipped":1,"carrierDetails":[{"name":"GEODIS","trackingNumber":"01F4FC4","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://portal.geodis.com/wps/portal/ExtranetSCO/Home/ibm/trackandtraceosol/?searchoption=servicenumber&amp;searchvalue=01F4FC4","proofOfDelivery":{"signedByName":"N/A"}}]},{"vendorSalesOrderLineNumber":"30","vendorPartNumber":"7014T42","description":"IBM  MACHINE TYPE 7014 - MODEL NEW  ","quantityShipped":1,"carrierDetails":[{"name":"GEODIS","trackingNumber":"01F4FC4","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://portal.geodis.com/wps/portal/ExtranetSCO/Home/ibm/trackandtraceosol/?searchoption=servicenumber&amp;searchvalue=01F4FC4","proofOfDelivery":{"signedByName":"N/A"}}]},{"vendorSalesOrderLineNumber":"130","vendorPartNumber":"20784H4","description":"IBM  MACHINE TYPE 2078 - MODEL NEW  ","quantityShipped":1,"carrierDetails":[{"name":"GEODIS","trackingNumber":"01F4F8C","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://portal.geodis.com/wps/portal/ExtranetSCO/Home/ibm/trackandtraceosol/?searchoption=servicenumber&amp;searchvalue=01F4F8C","proofOfDelivery":{"signedByName":"N/A"}}]},{"vendorSalesOrderLineNumber":"160","vendorPartNumber":"7063CR1","description":"IBM  MACHINE TYPE 7063 - MODEL NEW  ","quantityShipped":1,"carrierDetails":[{"name":"GEODIS","trackingNumber":"01F4FC4","quantity":0,"actualShipDate":"2020-10-01","carrierPickupDate":"2020-10-01","status":"Delivered","trackingUrl":"https://portal.geodis.com/wps/portal/ExtranetSCO/Home/ibm/trackandtraceosol/?searchoption=servicenumber&amp;searchvalue=01F4FC4","proofOfDelivery":{"signedByName":"N/A"}}]}]}</t>
+  </si>
+  <si>
+    <t>{"orderLines":[{"ingramSalesOrderLineNumber":"004","ingramPartNumber":"5BN705","vendorPartNumber":"T202120-BCS","description":"EPSON - CLOSED PRINTERS AND INK  T202 CMYK COMBO INK","quantityShipped":1,"carrierDetails":[{"name":"UPS","scac":"upsn","trackingNumber":"9261290000787116282953","quantity":1,"actualShipDate":"2020-06-02","estimatedDeliveryDate":"2020-06-09","deliveredDate":"2020-06-10","status":"Delivered","statusDescription":"Package delivered by post office","shipFromLocation":"MILLINGTON, TN","trackingUrl":"https://www.ups.com/track?loc=en_US&amp;tracknum=9261290000787116282953"}]}]}</t>
+  </si>
+  <si>
+    <t>{"orderLines":[{"ingramSalesOrderLineNumber":"001","ingramPartNumber":"8PH242","vendorPartNumber":"20TLS15T00","description":"LENOVO  PC CONNECTION INC ONLY         SYST  MC00028923 EXP 11/04/2021","quantityShipped":9,"carrierDetails":[{"name":"UNITED PARCEL SERVICE INC","scac":"UPSN","trackingNumber":"1ZV6292VDG13617595","quantity":4,"actualShipDate":"2020-12-03","estimatedDeliveryDate":"2020-12-10","trackingUrl":"https://www.ups.com/track?loc=en_US&amp;tracknum=1ZV6292VDG13617595"},{"name":"UNITED PARCEL SERVICE INC","scac":"UPSN","trackingNumber":"1ZV6292VDG13619404","quantity":1,"actualShipDate":"2020-12-03","estimatedDeliveryDate":"2020-12-10","trackingUrl":"https://www.ups.com/track?loc=en_US&amp;tracknum=1ZV6292VDG13619404"},{"name":"UNITED PARCEL SERVICE INC","scac":"UPSN","trackingNumber":"1ZV6292VDG13619397","quantity":4,"actualShipDate":"2020-12-03","estimatedDeliveryDate":"2020-12-10","trackingUrl":"https://www.ups.com/track?loc=en_US&amp;tracknum=1ZV6292VDG13619397"}]}]}</t>
+  </si>
+  <si>
+    <t>{"orderLines":[{"ingramSalesOrderLineNumber":"001","ingramPartNumber":"6VF654","vendorPartNumber":"FZ-55C1608VM","description":"PANASONIC  FZ TOUGHBOOK 55 I5-8365U 1.6G  SYST  16GB 512GB SSD 14.0IN BT W10P","quantityShipped":2,"carrierDetails":[{"name":"FEDEX EXPRESS","scac":"FDE","trackingNumber":"943387230602","quantity":2,"actualShipDate":"2020-12-09","estimatedDeliveryDate":"2020-12-12","trackingUrl":"http://www.fedex.com/Tracking?tracknumbers=943387230602"}]}]}</t>
+  </si>
+  <si>
+    <t>{"orderLines":[{"vendorSalesOrderLineNumber":"50","vendorPartNumber":"5692A6P","description":"IBM  AIX SPO  ","serialNumberCount":1,"serialNumbers":["R2DCZUS"]},{"vendorSalesOrderLineNumber":"60","vendorPartNumber":"5765G98","description":"IBM  IBMAIX 7.2 STANDARDEDIT  ","serialNumberCount":1,"serialNumbers":["R2HN65D"]},{"vendorSalesOrderLineNumber":"70","vendorPartNumber":"5733WE3","description":"IBM  IBMWEB ENABLEMENT FOR I  ","serialNumberCount":1,"serialNumbers":["R2M8G2L"]},{"vendorSalesOrderLineNumber":"80","vendorPartNumber":"5765VE3","description":"IBM  IBMPOWERENTEREDITI  ","serialNumberCount":1,"serialNumbers":["R2HN65C"]},{"vendorSalesOrderLineNumber":"90","vendorPartNumber":"5770HAS","description":"IBM  POWERHA SYSMIRROR FOR I  ","serialNumberCount":1,"serialNumbers":["R20GELP"]},{"vendorSalesOrderLineNumber":"110","vendorPartNumber":"5770SS1","description":"IBM  IBM I  ","serialNumberCount":1,"serialNumbers":["R20GELG"]},{"vendorSalesOrderLineNumber":"120","vendorPartNumber":"5770SSA","description":"IBM  IBM I LICENSE  ","serialNumberCount":1,"serialNumbers":["R20GELJ"]},{"vendorSalesOrderLineNumber":"150","vendorPartNumber":"5639SV9","description":"IBM  IBM SV SW FLASHSYSTEM5100 V8  ","serialNumberCount":1,"serialNumbers":["R2W2H6Y"]},{"vendorSalesOrderLineNumber":"100","vendorPartNumber":"5770SS1","description":"IBM  IBM I  ","serialNumberCount":1,"serialNumbers":["R20GELS"]},{"vendorSalesOrderLineNumber":"10","vendorPartNumber":"900942G","description":"IBM  MACHINE TYPE 9009 - MODEL NEW  ","serialNumberCount":1,"serialNumbers":["78C5B80"]},{"vendorSalesOrderLineNumber":"30","vendorPartNumber":"7014T42","description":"IBM  MACHINE TYPE 7014 - MODEL NEW  ","serialNumberCount":1,"serialNumbers":["78H401G"]},{"vendorSalesOrderLineNumber":"130","vendorPartNumber":"20784H4","description":"IBM  MACHINE TYPE 2078 - MODEL NEW  ","serialNumberCount":1,"serialNumbers":["78E08D4"]},{"vendorSalesOrderLineNumber":"160","vendorPartNumber":"7063CR1","description":"IBM  MACHINE TYPE 7063 - MODEL NEW  ","serialNumberCount":1,"serialNumbers":["130ZKTA"]}]}</t>
+  </si>
+  <si>
+    <t>{"lines":[{"vendorSalesOrderLineNumber":"50","vendorPartNumber":"5692A6P","description":"IBM  AIX SPO","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1101","description":"IBM  1101-DVD PROCESS NO CHARGE","quantityOrdered":1},{"vendorPartNumber":"2313","description":"IBM  AIX V7.2 BASE INSTALL","quantityOrdered":1},{"vendorPartNumber":"2315","description":"IBM  AIX V7.2 EXPANSION PACK","quantityOrdered":1},{"vendorPartNumber":"2344","description":"IBM  IBMPOWERVMV3/VIOS","quantityOrdered":1},{"vendorPartNumber":"2345","description":"IBM  IBMPOWEV3EXPAPACK","quantityOrdered":1},{"vendorPartNumber":"2508","description":"IBM  AIX V7.2 STANDARD SPEC","quantityOrdered":1},{"vendorPartNumber":"3435","description":"IBM  3435-DVD/CD-ROM","quantityOrdered":1},{"vendorPartNumber":"3450","description":"IBM  3450-ELECTRONIC DELIVERY","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"60","vendorPartNumber":"5765G98","description":"IBM  IBMAIX 7.2 STANDARDEDIT","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0008","description":"IBM  0008-PER PROCESSOR SMALL P7","quantityOrdered":4}]},{"vendorSalesOrderLineNumber":"70","vendorPartNumber":"5733WE3","description":"IBM  IBMWEB ENABLEMENT FOR I","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0001","description":"IBM  0001-IBM WEB ENABLEMENT FR I","quantityOrdered":1},{"vendorPartNumber":"3450","description":"IBM  ELECTRONIC DELIVERY","quantityOrdered":1},{"vendorPartNumber":"5819","description":"IBM  WEB ENABLEMENT FOR I","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"80","vendorPartNumber":"5765VE3","description":"IBM  IBMPOWERENTEREDITI","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0005","description":"IBM  0005-PERPROCORSMANOCHA","quantityOrdered":16}]},{"vendorSalesOrderLineNumber":"90","vendorPartNumber":"5770HAS","description":"IBM  POWERHA SYSMIRROR FOR I","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1495","description":"IBM  1495-PER PROC STD ED - SMALL","quantityOrdered":1},{"vendorPartNumber":"1504","description":"IBM  1504-PER ROC ENT UPG FEAT - SM","quantityOrdered":1},{"vendorPartNumber":"3441","description":"IBM  LPAR SYSTEM INDICATOR","quantityOrdered":1},{"vendorPartNumber":"5827","description":"IBM  5827-LANGUAGE GROUP 1","quantityOrdered":1},{"vendorPartNumber":"5947","description":"IBM  5947-LANGUAGE GROUP 1","quantityOrdered":1},{"vendorPartNumber":"6345","description":"IBM  6345-USER ENTITLEMENT","quantityOrdered":1},{"vendorPartNumber":"6346","description":"IBM  6346-USER ENTITLEMENT","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"110","vendorPartNumber":"5770SS1","description":"IBM  IBM I","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1383","description":"IBM  1383-OTC STAMPED MEDIA","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"120","vendorPartNumber":"5770SSA","description":"IBM  IBM I LICENSE","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1551","description":"IBM  1551-ILIC1YSWMA-E6B/E6D/42A","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"150","vendorPartNumber":"5639SV9","description":"IBM  IBM SV SW FLASHSYSTEM5100 V8","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-09-30","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0001","description":"IBM  0001-SV STORWIZE V5100 SW","quantityOrdered":1},{"vendorPartNumber":"0005","description":"IBM  0005-STORWIZE V5100 FB SW","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"100","vendorPartNumber":"5770SS1","description":"IBM  IBM I","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-09","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"BOULDER COLORADO USA (SOFTWARE)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"1066","description":"IBM  1066-P20 HA SWITCH W/SW PKG","quantityOrdered":1},{"vendorPartNumber":"1535","description":"IBM  1535-PPROCRGILIC-E6B/E6D/42A","quantityOrdered":1},{"vendorPartNumber":"3441","description":"IBM  LPAR SYSTEM INDICATOR","quantityOrdered":1},{"vendorPartNumber":"5837","description":"IBM  I 7.3 LANG GRP 1 SUPPLY","quantityOrdered":1},{"vendorPartNumber":"5873","description":"IBM  I 7.3 MACHINE CODE","quantityOrdered":1},{"vendorPartNumber":"5949","description":"IBM  I7.3HASWITCHRESSUPPLY","quantityOrdered":1},{"vendorPartNumber":"5973","description":"IBM  IBM I USB UTIL LIC INS7.3","quantityOrdered":1},{"vendorPartNumber":"6000","description":"IBM  PER PROC EPOE REG FOR IBM I PW","quantityOrdered":1},{"vendorPartNumber":"6001","description":"IBM  6001-EPOE UPG REG","quantityOrdered":1},{"vendorPartNumber":"6290","description":"IBM  IBMIACCCLISOLSUP","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"10","vendorPartNumber":"900942G","description":"IBM  MACHINE TYPE 9009 - MODEL NEW","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-02","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"GUADALAJARA MEXICO (SPD)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"0040","description":"IBM  MIRRORED SYSTEM DISK LEVEL, SP","quantityOrdered":1},{"vendorPartNumber":"0265","description":"IBM  AIX PARTITION SPECIFY","quantityOrdered":1},{"vendorPartNumber":"0267","description":"IBM  I5/OS PARTITION SPECIFY","quantityOrdered":4},{"vendorPartNumber":"0444","description":"IBM  CBU SPECIFY","quantityOrdered":1},{"vendorPartNumber":"0837","description":"IBM  SAN LOAD SOURCE SPECIFY","quantityOrdered":1},{"vendorPartNumber":"2145","description":"IBM  PRIMARY OS - IBM I","quantityOrdered":1},{"vendorPartNumber":"4649","description":"IBM  RACK INTEGRATION SERVICES","quantityOrdered":1},{"vendorPartNumber":"4651","description":"IBM  4651-RACK INDICATOR, RACK  1","quantityOrdered":1},{"vendorPartNumber":"4970","description":"IBM  4970-ONE PROCESSOR OF 5250 ENT","quantityOrdered":1},{"vendorPartNumber":"5228","description":"IBM  5228-POWERVM ENTERPRISE EDITIN","quantityOrdered":16},{"vendorPartNumber":"5550","description":"IBM  SYS CONSOLE ON HMC","quantityOrdered":1},{"vendorPartNumber":"5899","description":"IBM  5899-PCIE2 4-PORT 1GBE ADAPTER","quantityOrdered":4},{"vendorPartNumber":"6577","description":"IBM  POWER CABLE DRAWER TO IBM PD","quantityOrdered":4},{"vendorPartNumber":"9300","description":"IBM  LANGUAGE GROUP SPCF-US ENG","quantityOrdered":1},{"vendorPartNumber":"9440","description":"IBM  NEW AIX LICENSE CORE COUNTER","quantityOrdered":4},{"vendorPartNumber":"9441","description":"IBM  NEW IBM I LIC CORE COUNTER","quantityOrdered":1},{"vendorPartNumber":"9448","description":"IBM  OTHER IBM I LIC CORE COUNTER","quantityOrdered":15},{"vendorPartNumber":"EB2M","description":"IBM  EB2M-POWER SUPPLY 200-240 VAC","quantityOrdered":4},{"vendorPartNumber":"EB73","description":"IBM  IBM I 7.3 INDICATOR","quantityOrdered":1},{"vendorPartNumber":"ECCF","description":"IBM  PORT CONVERTER CABLE FOR UPS","quantityOrdered":1},{"vendorPartNumber":"ECW0","description":"IBM  OPTICAL WRAP PLUG","quantityOrdered":2},{"vendorPartNumber":"EJU3","description":"IBM  EJU3-FRONT IBM BEZEL 12-BAY","quantityOrdered":1},{"vendorPartNumber":"EM65","description":"IBM  EM65-128 GB DDR4 MEMORY","quantityOrdered":8},{"vendorPartNumber":"EN1A","description":"IBM  PCIE3 32GB 2-PORT FC ADAPTER","quantityOrdered":2},{"vendorPartNumber":"EP5E","description":"IBM  EP5E-8-CORE 3.8/4.0 GHZ POWER9","quantityOrdered":2},{"vendorPartNumber":"EP6E","description":"IBM  EP6E-ONE PROC ACTIVATION EP5E","quantityOrdered":16},{"vendorPartNumber":"ESC6","description":"IBM  S&amp;H-B","quantityOrdered":1},{"vendorPartNumber":"EU0B","description":"IBM  OPERATOR PANEL LCD DISPLAY","quantityOrdered":1},{"vendorPartNumber":"EU19","description":"IBM  CABLE TIES&amp; LABELS","quantityOrdered":1},{"vendorPartNumber":"EUA5","description":"IBM  STANDALONE USB DVD DRIVE W/C","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"30","vendorPartNumber":"7014T42","description":"IBM  MACHINE TYPE 7014 - MODEL NEW","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-02","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"GUADALAJARA MEXICO (SPD)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"4651","description":"IBM  RACK INDICATOR, RACK # 1","quantityOrdered":1},{"vendorPartNumber":"6069","description":"IBM  6069-FRONTDOORFOR2.0MRACK","quantityOrdered":1},{"vendorPartNumber":"6098","description":"IBM  SIDE PANEL 1.8M/2M RACK BLACK","quantityOrdered":2},{"vendorPartNumber":"6654","description":"IBM  4.3M 1PH/24A PWR CORD","quantityOrdered":2},{"vendorPartNumber":"7188","description":"IBM  PWR DIST.UNIT -SIDE MOUNT","quantityOrdered":1},{"vendorPartNumber":"9188","description":"IBM  PW.DIST.UN.SPCF-BASE/SIDE MNT","quantityOrdered":1},{"vendorPartNumber":"9300","description":"IBM  LANG.GROUP SPEC.-US ENGLISH","quantityOrdered":1},{"vendorPartNumber":"ER2B","description":"IBM  RESERVE 2U AT BOTTOM OF RACK","quantityOrdered":1},{"vendorPartNumber":"ER35","description":"IBM  RACK SPECIFY 42G - 4EIA","quantityOrdered":1},{"vendorPartNumber":"ERC2","description":"IBM  RACK CONTENT SPCFY 7063-CR1","quantityOrdered":1},{"vendorPartNumber":"ERLR","description":"IBM  LEFT/RIGHT PDU REDUNDANCY","quantityOrdered":1},{"vendorPartNumber":"ESC1","description":"IBM  RACK S&amp;H-A","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"130","vendorPartNumber":"20784H4","description":"IBM  MACHINE TYPE 2078 - MODEL NEW","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-02","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"GUADALAJARA MEXICO (SPD)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"9730","description":"IBM  POWER CORD - PDU CONNECTION","quantityOrdered":1},{"vendorPartNumber":"ACB9","description":"IBM  32GB FC ADAPTER PAIR","quantityOrdered":1},{"vendorPartNumber":"ACGE","description":"IBM  V5100 64 GB CACHE UPGRADE","quantityOrdered":2},{"vendorPartNumber":"ACGF","description":"IBM  V5100 384 GB CACHE UPGRADE","quantityOrdered":1},{"vendorPartNumber":"ACGX","description":"IBM  ACGX-120 GBM.2 BOOTDRIVEPAIR","quantityOrdered":1},{"vendorPartNumber":"ACGZ","description":"IBM  MANUFACTURING INDICATOR #2","quantityOrdered":1},{"vendorPartNumber":"ACSQ","description":"IBM  1M OM3 FIBER CABLE (LC)","quantityOrdered":8},{"vendorPartNumber":"ADN1","description":"IBM  ORDER TYPE 1 - CTO","quantityOrdered":1},{"vendorPartNumber":"AES5","description":"IBM  AES5-4.8TB NVME FCM","quantityOrdered":12},{"vendorPartNumber":"AGC8","description":"IBM  AGC8-SHIPPING AND HANDLING","quantityOrdered":1}]},{"vendorSalesOrderLineNumber":"160","vendorPartNumber":"7063CR1","description":"IBM  MACHINE TYPE 7063 - MODEL NEW","quantityOrdered":1,"quantityShipped":1,"lineStatus":"Shipped","shipments":[{"quantity":1,"estimatedShipDate":"2020-10-02","actualShipDate":"2020-10-01","additionalInformation":[{"type":"PlantOfManufacturer","value":"GUADALAJARA MEXICO (SPD)"},{"type":"VendorSalesOrder","value":"7200338004"}]}],"childLines":[{"vendorPartNumber":"4650","description":"IBM  NO FACTORY INTEGRATION IND.","quantityOrdered":1},{"vendorPartNumber":"9069","description":"IBM  HMC/SRV ORDER LINKAGE IND","quantityOrdered":1},{"vendorPartNumber":"9300","description":"IBM  LANGUAGE GROUP SPCF-US ENG","quantityOrdered":1},{"vendorPartNumber":"EC16","description":"IBM  OPEN POWER NON-VIRTUAL CONFI","quantityOrdered":1},{"vendorPartNumber":"EKLM","description":"IBM  1.8M 6FT PWRCRD,200-240V/15A","quantityOrdered":2},{"vendorPartNumber":"ESC5","description":"IBM  S&amp;H-A","quantityOrdered":1},{"vendorPartNumber":"EU39","description":"IBM  EU39-P9 ATTACHMENT INDICATOR","quantityOrdered":1}]}]}</t>
   </si>
 </sst>
 </file>
@@ -919,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I12" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>103</v>
@@ -989,7 +995,7 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1000,7 +1006,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>103</v>
@@ -1016,7 +1022,7 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1027,7 +1033,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>103</v>
@@ -1043,7 +1049,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1054,7 +1060,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>103</v>
@@ -1070,7 +1076,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1081,7 +1087,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>103</v>
@@ -1097,7 +1103,7 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1108,7 +1114,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>103</v>
@@ -1120,10 +1126,12 @@
         <v>84</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1133,7 +1141,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>103</v>
@@ -1148,7 +1156,9 @@
         <v>86</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1158,7 +1168,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>104</v>
@@ -1174,7 +1184,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1185,7 +1195,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>104</v>
@@ -1201,7 +1211,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1212,7 +1222,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>104</v>
@@ -1228,7 +1238,7 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1239,7 +1249,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>104</v>
@@ -1248,14 +1258,14 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1266,7 +1276,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>104</v>
@@ -1282,7 +1292,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1293,7 +1303,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>104</v>
@@ -1318,7 +1328,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>105</v>
@@ -1330,11 +1340,11 @@
         <v>52</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1345,7 +1355,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>107</v>
@@ -1361,7 +1371,7 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1372,7 +1382,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>107</v>
@@ -1388,7 +1398,7 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1399,7 +1409,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>107</v>
@@ -1415,7 +1425,7 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1426,7 +1436,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>107</v>
@@ -1442,7 +1452,7 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1453,7 +1463,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>107</v>
@@ -1469,7 +1479,7 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1480,7 +1490,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>106</v>
@@ -1496,7 +1506,7 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1507,7 +1517,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>106</v>
@@ -1523,7 +1533,7 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1534,7 +1544,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>106</v>
@@ -1550,7 +1560,7 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1561,7 +1571,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>106</v>
@@ -1577,7 +1587,7 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1588,7 +1598,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>106</v>
@@ -1604,7 +1614,7 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1615,7 +1625,7 @@
         <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>106</v>
@@ -1631,7 +1641,7 @@
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1642,7 +1652,7 @@
         <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>106</v>
@@ -1658,7 +1668,7 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1669,7 +1679,7 @@
         <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>106</v>
@@ -1685,7 +1695,7 @@
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1696,7 +1706,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>106</v>
@@ -1712,7 +1722,7 @@
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1720,10 +1730,10 @@
         <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>108</v>
@@ -1741,7 +1751,7 @@
         <v>101</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1749,10 +1759,10 @@
         <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>108</v>
@@ -1770,7 +1780,7 @@
         <v>102</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1778,10 +1788,10 @@
         <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>108</v>
@@ -1793,19 +1803,21 @@
         <v>84</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I33" s="3"/>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I47" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
